--- a/Tugboat Problem V3-Demo.xlsx
+++ b/Tugboat Problem V3-Demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work\Aj Kanchana Projects\TugBoat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77CC276-CBCC-4E13-9FCA-190AFA5A0233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0615ABC6-670C-4FBD-A95A-EFA4697D72CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="order" sheetId="5" r:id="rId1"/>
@@ -784,16 +784,16 @@
     <t>2025-01-17 18:00:00</t>
   </si>
   <si>
-    <t>2025-01-22 18:00:00</t>
-  </si>
-  <si>
-    <t>2025-01-19 08:00:00</t>
-  </si>
-  <si>
-    <t>2025-01-23 18:00:00</t>
-  </si>
-  <si>
     <t>o4</t>
+  </si>
+  <si>
+    <t>2025-01-24 18:00:00</t>
+  </si>
+  <si>
+    <t>2025-01-21 08:00:00</t>
+  </si>
+  <si>
+    <t>2025-01-26 18:00:00</t>
   </si>
 </sst>
 </file>
@@ -1162,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W993"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1404,7 +1404,7 @@
         <v>233</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I4" s="1">
         <v>2000</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>193</v>
@@ -1466,10 +1466,10 @@
         <v>20000</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I5" s="1">
         <v>400</v>
@@ -2571,7 +2571,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>7</v>
@@ -8370,7 +8370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>

--- a/Tugboat Problem V3-Demo.xlsx
+++ b/Tugboat Problem V3-Demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work\Aj Kanchana Projects\TugBoat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0615ABC6-670C-4FBD-A95A-EFA4697D72CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B9353C-009F-4B2D-9792-B7E99527A05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="order" sheetId="5" r:id="rId1"/>
@@ -800,11 +800,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -893,7 +900,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,6 +910,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,32 +944,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1175,14 +1220,14 @@
     <col min="6" max="6" width="8.5703125" customWidth="1"/>
     <col min="7" max="7" width="33.5703125" customWidth="1"/>
     <col min="8" max="8" width="31.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="16" style="23" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="26" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="26" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="26" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="26" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="26" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="26" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" style="26" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="18" max="18" width="8.5703125" customWidth="1"/>
     <col min="19" max="19" width="6.28515625" customWidth="1"/>
@@ -1214,28 +1259,28 @@
       <c r="H1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="24" t="s">
         <v>192</v>
       </c>
       <c r="Q1" t="s">
@@ -1282,25 +1327,25 @@
       <c r="H2" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="22">
         <v>420</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="24">
         <v>400</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="24">
         <v>420</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="24">
         <v>380</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="24">
         <v>300</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="25">
         <v>360</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="26">
         <v>0</v>
       </c>
       <c r="Q2" s="1">
@@ -1341,28 +1386,28 @@
       <c r="H3" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="22">
         <v>400</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="24">
         <v>380</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="24">
         <v>350</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="24">
         <v>300</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="24">
         <v>380</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="24">
         <v>350</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="24">
         <v>300</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="27">
         <v>0</v>
       </c>
       <c r="Q3" s="1">
@@ -1406,28 +1451,28 @@
       <c r="H4" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="22">
         <v>2000</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="24">
         <v>380</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="24">
         <v>350</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="24">
         <v>300</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="24">
         <v>400</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="24">
         <v>420</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="24">
         <v>380</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="27">
         <v>0</v>
       </c>
       <c r="Q4" s="1">
@@ -1471,25 +1516,25 @@
       <c r="H5" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="22">
         <v>400</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="24">
         <v>380</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="24">
         <v>350</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="24">
         <v>300</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="24">
         <v>400</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="24">
         <v>420</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="24">
         <v>380</v>
       </c>
     </row>
@@ -2474,7 +2519,7 @@
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2484,7 +2529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E999"/>
   <sheetViews>
-    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -3564,7 +3609,7 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -3574,13 +3619,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A19" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="8.5703125" customWidth="1"/>
+    <col min="1" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="22.140625" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
@@ -3600,7 +3647,7 @@
       <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -4517,63 +4564,63 @@
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:11" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="30">
         <v>500</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="29">
         <v>2500</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="29">
         <v>13.188484284522699</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="29">
         <v>100.81514283237</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="J30" s="1">
+      <c r="H30" s="30"/>
+      <c r="J30" s="29">
         <v>20</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="32" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:11" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="30">
         <v>500</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="29">
         <v>3000</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="29">
         <v>13.188484284522699</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="29">
         <v>100.81514283237</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="J31" s="1">
+      <c r="H31" s="30"/>
+      <c r="J31" s="29">
         <v>20</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="32" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4907,34 +4954,34 @@
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:11" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="34">
         <v>500</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="35">
         <v>2500</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="35">
         <v>13.188484284522699</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="35">
         <v>100.81514283237</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="5">
+      <c r="H42" s="36"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="35">
         <v>20</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="K42" s="32" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6487,7 +6534,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -6498,7 +6545,7 @@
   <dimension ref="A1:O1003"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8360,7 +8407,7 @@
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -8370,8 +8417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8407,7 +8454,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="28" t="s">
         <v>114</v>
       </c>
       <c r="B2" t="s">
@@ -8423,7 +8470,7 @@
         <v>100.812638437557</v>
       </c>
       <c r="F2" s="1">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -9829,7 +9876,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
